--- a/main/static/records/Staff.xlsx
+++ b/main/static/records/Staff.xlsx
@@ -326,21 +326,21 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
